--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="13370" tabRatio="415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1202,6 +1202,9 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1219,9 +1222,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1903,8 +1903,8 @@
   </sheetPr>
   <dimension ref="A1:BK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1940,15 +1940,15 @@
       <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54">
         <f ca="1">IFERROR(IF(MIN(Jalons[FIN])=0,TODAY(),MIN(Jalons[FIN])),TODAY())</f>
         <v>44446</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
@@ -1961,8 +1961,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="34">
         <v>0</v>
       </c>
@@ -1977,10 +1977,10 @@
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="35" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="24" t="str">
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="24" t="str">
@@ -3345,21 +3345,21 @@
         <v>8</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
@@ -3418,21 +3418,21 @@
         <v>1</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
       <c r="W16" s="24"/>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
@@ -3655,22 +3655,22 @@
         <v>74</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
       <c r="X19" s="24"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
@@ -3968,28 +3968,28 @@
         <v>1</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="24"/>
@@ -4281,44 +4281,44 @@
         <v>1</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="H27" s="57" t="str">
+      <c r="H27" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(H$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I27" s="57" t="str">
+      <c r="I27" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(I$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J27" s="57" t="str">
+      <c r="J27" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(J$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
       <c r="AK27" s="24"/>
       <c r="AL27" s="24"/>
       <c r="AM27" s="24"/>
@@ -4691,44 +4691,44 @@
         <v>1</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" s="57" t="str">
+      <c r="H32" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(H$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I32" s="57" t="str">
+      <c r="I32" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(I$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J32" s="57" t="str">
+      <c r="J32" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(J$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="57"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="57"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
       <c r="AK32" s="24"/>
       <c r="AL32" s="24"/>
       <c r="AM32" s="24"/>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="20">
         <v>44488</v>
@@ -4846,62 +4846,62 @@
       <c r="F34" s="43">
         <v>2</v>
       </c>
-      <c r="G34" s="24" t="str">
+      <c r="G34" s="51" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(G$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="H34" s="24" t="str">
+      <c r="H34" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(H$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I34" s="24" t="str">
+      <c r="I34" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(I$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J34" s="24" t="str">
+      <c r="J34" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(J$5=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="24"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="24"/>
-      <c r="AL34" s="24"/>
-      <c r="AM34" s="24"/>
-      <c r="AN34" s="24"/>
-      <c r="AO34" s="24"/>
-      <c r="AP34" s="24"/>
-      <c r="AQ34" s="24"/>
-      <c r="AR34" s="24"/>
-      <c r="AS34" s="24"/>
-      <c r="AT34" s="24"/>
-      <c r="AU34" s="24"/>
-      <c r="AV34" s="24"/>
-      <c r="AW34" s="24"/>
-      <c r="AX34" s="24"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
       <c r="AY34" s="24"/>
       <c r="AZ34" s="24"/>
       <c r="BA34" s="24"/>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="20">
         <v>44488</v>
@@ -5334,62 +5334,62 @@
       <c r="F40" s="43">
         <v>2</v>
       </c>
-      <c r="G40" s="24" t="str">
+      <c r="G40" s="51" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(G$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="H40" s="24" t="str">
+      <c r="H40" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(H$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I40" s="24" t="str">
+      <c r="I40" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(I$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J40" s="24" t="str">
+      <c r="J40" s="51" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(J$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="24"/>
-      <c r="AW40" s="24"/>
-      <c r="AX40" s="24"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="51"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51"/>
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
+      <c r="AW40" s="51"/>
+      <c r="AX40" s="51"/>
       <c r="AY40" s="24"/>
       <c r="AZ40" s="24"/>
       <c r="BA40" s="24"/>
@@ -6291,11 +6291,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="20">
-        <v>44451</v>
+        <v>44542</v>
       </c>
       <c r="F52" s="43">
         <f ca="1">TODAY()-Jalons[[#This Row],[FIN]]</f>
-        <v>16</v>
+        <v>-54</v>
       </c>
       <c r="G52" s="24" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(G$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
@@ -6376,11 +6376,11 @@
         <v>0</v>
       </c>
       <c r="E53" s="20">
-        <v>44452</v>
+        <v>44543</v>
       </c>
       <c r="F53" s="43">
         <f ca="1">TODAY()-Jalons[[#This Row],[FIN]]</f>
-        <v>15</v>
+        <v>-55</v>
       </c>
       <c r="G53" s="24" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre d''heures]])=0,"",IF(AND(G$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="20">
-        <v>44453</v>
+        <v>44544</v>
       </c>
       <c r="F54" s="43">
         <v>3</v>
